--- a/Tests/files/WilliamR.xlsx
+++ b/Tests/files/WilliamR.xlsx
@@ -1,21 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\hay\HypanceDataAnalysis\Tests\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BCF72C-BB11-4F15-8267-BCF5451C3B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Williams %R" sheetId="1" r:id="rId4"/>
+    <sheet name="Williams %R" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -37,38 +52,30 @@
   <si>
     <t>14-day Williams %R</t>
   </si>
+  <si>
+    <t>14R</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -79,10 +86,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -92,24 +96,37 @@
     </fill>
   </fills>
   <borders count="9">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -119,149 +136,131 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="2" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="2" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="2" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="2" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="2" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="2" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="7" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="2" fillId="2" borderId="7" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="2" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="2" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -551,34 +550,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="125" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="11" defaultColWidth="9.1640625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="true" style="3"/>
-    <col min="2" max="2" width="2.83203125" customWidth="true" style="3"/>
-    <col min="3" max="3" width="9.5" customWidth="true" style="1"/>
-    <col min="4" max="4" width="6.83203125" customWidth="true" style="2"/>
-    <col min="5" max="5" width="6.83203125" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.1640625" style="7"/>
-    <col min="7" max="7" width="9.1640625" style="7"/>
-    <col min="8" max="8" width="9.1640625" style="7"/>
-    <col min="9" max="9" width="9.83203125" customWidth="true" style="2"/>
-    <col min="10" max="10" width="1.6640625" customWidth="true" style="2"/>
-    <col min="11" max="11" width="2.6640625" customWidth="true" style="3"/>
-    <col min="12" max="12" width="9.1640625" style="10"/>
+    <col min="1" max="1" width="1.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="7" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="9.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" customHeight="1" ht="12"/>
-    <row r="2" spans="1:15" customHeight="1" ht="42.75" s="5" customFormat="1">
+    <row r="1" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="11"/>
       <c r="C2" s="12" t="s">
@@ -604,773 +598,800 @@
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="10"/>
+      <c r="L2" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="1:15" customHeight="1" ht="11">
+    <row r="3" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="16">
         <v>1</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="1">
         <v>40232</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="2">
         <v>127.009</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="2">
         <v>125.3574</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="1:15" customHeight="1" ht="11">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="16">
         <v>2</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="1">
         <v>40233</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="2">
         <v>127.6159</v>
       </c>
-      <c r="E4" s="18">
-        <v>126.1633</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="E4" s="2">
+        <v>126.16330000000001</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="17"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:15" customHeight="1" ht="11">
+    <row r="5" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="16">
         <v>3</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="1">
         <v>40234</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="2">
         <v>126.5911</v>
       </c>
-      <c r="E5" s="18">
-        <v>124.9296</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:15" customHeight="1" ht="11">
+      <c r="E5" s="2">
+        <v>124.92959999999999</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="16">
         <v>4</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="1">
         <v>40235</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="2">
         <v>127.3472</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="2">
         <v>126.0937</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:15" customHeight="1" ht="11">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16">
         <v>5</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="1">
         <v>40238</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="2">
         <v>128.173</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="2">
         <v>126.8199</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="1:15" customHeight="1" ht="11">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="16">
         <v>6</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="1">
         <v>40239</v>
       </c>
-      <c r="D8" s="18">
-        <v>128.4317</v>
-      </c>
-      <c r="E8" s="18">
+      <c r="D8" s="2">
+        <v>128.43170000000001</v>
+      </c>
+      <c r="E8" s="2">
         <v>126.4817</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:15" customHeight="1" ht="11">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="16">
         <v>7</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="1">
         <v>40240</v>
       </c>
-      <c r="D9" s="18">
-        <v>127.3671</v>
-      </c>
-      <c r="E9" s="18">
-        <v>126.034</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-    </row>
-    <row r="10" spans="1:15" customHeight="1" ht="11">
+      <c r="D9" s="2">
+        <v>127.36709999999999</v>
+      </c>
+      <c r="E9" s="2">
+        <v>126.03400000000001</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="16">
         <v>8</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="1">
         <v>40241</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="2">
         <v>126.422</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="2">
         <v>124.8301</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" spans="1:15" customHeight="1" ht="11">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="16">
         <v>9</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="1">
         <v>40242</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="2">
         <v>126.8995</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="2">
         <v>126.3921</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:15" customHeight="1" ht="11">
+    <row r="12" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="16">
         <v>10</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="1">
         <v>40245</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="2">
         <v>126.8498</v>
       </c>
-      <c r="E12" s="18">
-        <v>125.7156</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="1:15" customHeight="1" ht="11">
+      <c r="E12" s="2">
+        <v>125.71559999999999</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="16">
         <v>11</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="1">
         <v>40246</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="2">
         <v>125.646</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="2">
         <v>124.5615</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="1:15" customHeight="1" ht="11">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16">
         <v>12</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="1">
         <v>40247</v>
       </c>
-      <c r="D14" s="18">
-        <v>125.7156</v>
-      </c>
-      <c r="E14" s="18">
+      <c r="D14" s="2">
+        <v>125.71559999999999</v>
+      </c>
+      <c r="E14" s="2">
         <v>124.5715</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
-    </row>
-    <row r="15" spans="1:15" customHeight="1" ht="11">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16">
         <v>13</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="1">
         <v>40248</v>
       </c>
-      <c r="D15" s="18">
-        <v>127.1582</v>
-      </c>
-      <c r="E15" s="18">
+      <c r="D15" s="2">
+        <v>127.15819999999999</v>
+      </c>
+      <c r="E15" s="2">
         <v>125.0689</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
-    </row>
-    <row r="16" spans="1:15" customHeight="1" ht="11">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="16">
         <v>14</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="1">
         <v>40249</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="2">
         <v>127.7154</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="2">
         <v>126.8597</v>
       </c>
-      <c r="F16" s="18">
-        <f>MAX(D3:D16)</f>
-        <v>128.4317</v>
-      </c>
-      <c r="G16" s="18">
-        <f>MIN(E3:E16)</f>
+      <c r="F16" s="2">
+        <f t="shared" ref="F16:F32" si="0">MAX(D3:D16)</f>
+        <v>128.43170000000001</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" ref="G16:G32" si="1">MIN(E3:E16)</f>
         <v>124.5615</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="2">
         <v>127.2876</v>
       </c>
-      <c r="I16" s="19">
-        <f>(F16-H16)/(F16-G16)*-100</f>
-        <v>-29.561779752984</v>
-      </c>
-      <c r="L16" s="24"/>
-    </row>
-    <row r="17" spans="1:15" customHeight="1" ht="11">
+      <c r="I16" s="17">
+        <f t="shared" ref="I16:I32" si="2">(F16-H16)/(F16-G16)*-100</f>
+        <v>-29.561779752984485</v>
+      </c>
+      <c r="L16" s="22">
+        <v>-29.561779752984485</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="16">
         <v>15</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="1">
         <v>40252</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="2">
         <v>127.6855</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="2">
         <v>126.6309</v>
       </c>
-      <c r="F17" s="18">
-        <f>MAX(D4:D17)</f>
-        <v>128.4317</v>
-      </c>
-      <c r="G17" s="18">
-        <f>MIN(E4:E17)</f>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>128.43170000000001</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
         <v>124.5615</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="2">
         <v>127.1781</v>
       </c>
-      <c r="I17" s="19">
-        <f>(F17-H17)/(F17-G17)*-100</f>
-        <v>-32.391090899695</v>
-      </c>
-      <c r="L17" s="24"/>
-    </row>
-    <row r="18" spans="1:15" customHeight="1" ht="11">
+      <c r="I17" s="17">
+        <f t="shared" si="2"/>
+        <v>-32.391090899695165</v>
+      </c>
+      <c r="L17" s="22">
+        <v>-32.391090899695165</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="16">
         <v>16</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="1">
         <v>40253</v>
       </c>
-      <c r="D18" s="18">
-        <v>128.2228</v>
-      </c>
-      <c r="E18" s="18">
+      <c r="D18" s="2">
+        <v>128.22280000000001</v>
+      </c>
+      <c r="E18" s="2">
         <v>126.8001</v>
       </c>
-      <c r="F18" s="18">
-        <f>MAX(D5:D18)</f>
-        <v>128.4317</v>
-      </c>
-      <c r="G18" s="18">
-        <f>MIN(E5:E18)</f>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>128.43170000000001</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
         <v>124.5615</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="2">
         <v>128.0138</v>
       </c>
-      <c r="I18" s="19">
-        <f>(F18-H18)/(F18-G18)*-100</f>
-        <v>-10.79789158183</v>
-      </c>
-      <c r="L18" s="24"/>
-    </row>
-    <row r="19" spans="1:15" customHeight="1" ht="11">
+      <c r="I18" s="17">
+        <f t="shared" si="2"/>
+        <v>-10.797891581830443</v>
+      </c>
+      <c r="L18" s="22">
+        <v>-10.797891581830443</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="16">
         <v>17</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="1">
         <v>40254</v>
       </c>
-      <c r="D19" s="18">
-        <v>128.2725</v>
-      </c>
-      <c r="E19" s="18">
+      <c r="D19" s="2">
+        <v>128.27250000000001</v>
+      </c>
+      <c r="E19" s="2">
         <v>126.7105</v>
       </c>
-      <c r="F19" s="18">
-        <f>MAX(D6:D19)</f>
-        <v>128.4317</v>
-      </c>
-      <c r="G19" s="18">
-        <f>MIN(E6:E19)</f>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>128.43170000000001</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
         <v>124.5615</v>
       </c>
-      <c r="H19" s="18">
-        <v>127.1085</v>
-      </c>
-      <c r="I19" s="19">
-        <f>(F19-H19)/(F19-G19)*-100</f>
-        <v>-34.189447573769</v>
-      </c>
-      <c r="L19" s="24"/>
-    </row>
-    <row r="20" spans="1:15" customHeight="1" ht="11">
+      <c r="H19" s="2">
+        <v>127.10850000000001</v>
+      </c>
+      <c r="I19" s="17">
+        <f t="shared" si="2"/>
+        <v>-34.189447573768696</v>
+      </c>
+      <c r="L19" s="22">
+        <v>-34.189447573768696</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="16">
         <v>18</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="1">
         <v>40255</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="2">
         <v>128.0934</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="2">
         <v>126.8001</v>
       </c>
-      <c r="F20" s="18">
-        <f>MAX(D7:D20)</f>
-        <v>128.4317</v>
-      </c>
-      <c r="G20" s="18">
-        <f>MIN(E7:E20)</f>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>128.43170000000001</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
         <v>124.5615</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="2">
         <v>127.7253</v>
       </c>
-      <c r="I20" s="19">
-        <f>(F20-H20)/(F20-G20)*-100</f>
-        <v>-18.25228670353</v>
-      </c>
-      <c r="L20" s="24"/>
-    </row>
-    <row r="21" spans="1:15" customHeight="1" ht="11">
+      <c r="I20" s="17">
+        <f t="shared" si="2"/>
+        <v>-18.252286703529535</v>
+      </c>
+      <c r="L20" s="22">
+        <v>-18.252286703529535</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="16">
         <v>19</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="1">
         <v>40256</v>
       </c>
-      <c r="D21" s="18">
-        <v>128.2725</v>
-      </c>
-      <c r="E21" s="18">
+      <c r="D21" s="2">
+        <v>128.27250000000001</v>
+      </c>
+      <c r="E21" s="2">
         <v>126.1335</v>
       </c>
-      <c r="F21" s="18">
-        <f>MAX(D8:D21)</f>
-        <v>128.4317</v>
-      </c>
-      <c r="G21" s="18">
-        <f>MIN(E8:E21)</f>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>128.43170000000001</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
         <v>124.5615</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="2">
         <v>127.0587</v>
       </c>
-      <c r="I21" s="19">
-        <f>(F21-H21)/(F21-G21)*-100</f>
-        <v>-35.476202780218</v>
-      </c>
-      <c r="L21" s="24"/>
-    </row>
-    <row r="22" spans="1:15" customHeight="1" ht="11">
+      <c r="I21" s="17">
+        <f t="shared" si="2"/>
+        <v>-35.476202780218095</v>
+      </c>
+      <c r="L21" s="22">
+        <v>-35.476202780218095</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="16">
         <v>20</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="1">
         <v>40259</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="2">
         <v>127.7353</v>
       </c>
-      <c r="E22" s="18">
-        <v>125.9245</v>
-      </c>
-      <c r="F22" s="18">
-        <f>MAX(D9:D22)</f>
-        <v>128.2725</v>
-      </c>
-      <c r="G22" s="18">
-        <f>MIN(E9:E22)</f>
+      <c r="E22" s="2">
+        <v>125.92449999999999</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>128.27250000000001</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
         <v>124.5615</v>
       </c>
-      <c r="H22" s="18">
-        <v>127.3273</v>
-      </c>
-      <c r="I22" s="19">
-        <f>(F22-H22)/(F22-G22)*-100</f>
-        <v>-25.470223659391</v>
-      </c>
-      <c r="L22" s="24"/>
-    </row>
-    <row r="23" spans="1:15" customHeight="1" ht="11">
+      <c r="H22" s="2">
+        <v>127.32729999999999</v>
+      </c>
+      <c r="I22" s="17">
+        <f t="shared" si="2"/>
+        <v>-25.470223659391287</v>
+      </c>
+      <c r="L22" s="22">
+        <v>-25.470223659391287</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="16">
         <v>21</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="1">
         <v>40260</v>
       </c>
-      <c r="D23" s="18">
-        <v>128.77</v>
-      </c>
-      <c r="E23" s="18">
-        <v>126.9891</v>
-      </c>
-      <c r="F23" s="18">
-        <f>MAX(D10:D23)</f>
-        <v>128.77</v>
-      </c>
-      <c r="G23" s="18">
-        <f>MIN(E10:E23)</f>
+      <c r="D23" s="2">
+        <v>128.77000000000001</v>
+      </c>
+      <c r="E23" s="2">
+        <v>126.98909999999999</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>128.77000000000001</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="1"/>
         <v>124.5615</v>
       </c>
-      <c r="H23" s="18">
-        <v>128.7103</v>
-      </c>
-      <c r="I23" s="19">
-        <f>(F23-H23)/(F23-G23)*-100</f>
-        <v>-1.4185576808844</v>
-      </c>
-      <c r="L23" s="24"/>
-    </row>
-    <row r="24" spans="1:15" customHeight="1" ht="11">
+      <c r="H23" s="2">
+        <v>128.71029999999999</v>
+      </c>
+      <c r="I23" s="17">
+        <f t="shared" si="2"/>
+        <v>-1.4185576808844131</v>
+      </c>
+      <c r="L23" s="22">
+        <v>-1.4185576808844131</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="16">
         <v>22</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="1">
         <v>40261</v>
       </c>
-      <c r="D24" s="18">
-        <v>129.2873</v>
-      </c>
-      <c r="E24" s="18">
-        <v>127.8148</v>
-      </c>
-      <c r="F24" s="18">
-        <f>MAX(D11:D24)</f>
-        <v>129.2873</v>
-      </c>
-      <c r="G24" s="18">
-        <f>MIN(E11:E24)</f>
+      <c r="D24" s="2">
+        <v>129.28729999999999</v>
+      </c>
+      <c r="E24" s="2">
+        <v>127.81480000000001</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>129.28729999999999</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="1"/>
         <v>124.5615</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="2">
         <v>127.8745</v>
       </c>
-      <c r="I24" s="19">
-        <f>(F24-H24)/(F24-G24)*-100</f>
-        <v>-29.895467434085</v>
-      </c>
-      <c r="L24" s="24"/>
-    </row>
-    <row r="25" spans="1:15" customHeight="1" ht="11">
+      <c r="I24" s="17">
+        <f t="shared" si="2"/>
+        <v>-29.89546743408507</v>
+      </c>
+      <c r="L24" s="22">
+        <v>-29.89546743408507</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="16">
         <v>23</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="1">
         <v>40262</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="2">
         <v>130.0633</v>
       </c>
-      <c r="E25" s="18">
-        <v>128.4715</v>
-      </c>
-      <c r="F25" s="18">
-        <f>MAX(D12:D25)</f>
+      <c r="E25" s="2">
+        <v>128.47149999999999</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
         <v>130.0633</v>
       </c>
-      <c r="G25" s="18">
-        <f>MIN(E12:E25)</f>
+      <c r="G25" s="2">
+        <f t="shared" si="1"/>
         <v>124.5615</v>
       </c>
-      <c r="H25" s="18">
-        <v>128.5809</v>
-      </c>
-      <c r="I25" s="19">
-        <f>(F25-H25)/(F25-G25)*-100</f>
-        <v>-26.943909266058</v>
-      </c>
-      <c r="L25" s="24"/>
-    </row>
-    <row r="26" spans="1:15" customHeight="1" ht="11">
+      <c r="H25" s="2">
+        <v>128.58090000000001</v>
+      </c>
+      <c r="I25" s="17">
+        <f t="shared" si="2"/>
+        <v>-26.943909266058082</v>
+      </c>
+      <c r="L25" s="22">
+        <v>-26.943909266058082</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="16">
         <v>24</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="1">
         <v>40263</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="2">
         <v>129.1182</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="2">
         <v>128.0641</v>
       </c>
-      <c r="F26" s="18">
-        <f>MAX(D13:D26)</f>
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
         <v>130.0633</v>
       </c>
-      <c r="G26" s="18">
-        <f>MIN(E13:E26)</f>
+      <c r="G26" s="2">
+        <f t="shared" si="1"/>
         <v>124.5615</v>
       </c>
-      <c r="H26" s="18">
-        <v>128.6008</v>
-      </c>
-      <c r="I26" s="19">
-        <f>(F26-H26)/(F26-G26)*-100</f>
-        <v>-26.582209458723</v>
-      </c>
-      <c r="L26" s="24"/>
-    </row>
-    <row r="27" spans="1:15" customHeight="1" ht="11">
+      <c r="H26" s="2">
+        <v>128.60079999999999</v>
+      </c>
+      <c r="I26" s="17">
+        <f t="shared" si="2"/>
+        <v>-26.582209458722687</v>
+      </c>
+      <c r="L26" s="22">
+        <v>-26.582209458722687</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="16">
         <v>25</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="1">
         <v>40266</v>
       </c>
-      <c r="D27" s="18">
-        <v>129.2873</v>
-      </c>
-      <c r="E27" s="18">
-        <v>127.6059</v>
-      </c>
-      <c r="F27" s="18">
-        <f>MAX(D14:D27)</f>
+      <c r="D27" s="2">
+        <v>129.28729999999999</v>
+      </c>
+      <c r="E27" s="2">
+        <v>127.60590000000001</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="0"/>
         <v>130.0633</v>
       </c>
-      <c r="G27" s="18">
-        <f>MIN(E14:E27)</f>
+      <c r="G27" s="2">
+        <f t="shared" si="1"/>
         <v>124.5715</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="2">
         <v>127.9342</v>
       </c>
-      <c r="I27" s="19">
-        <f>(F27-H27)/(F27-G27)*-100</f>
-        <v>-38.768709712662</v>
-      </c>
-      <c r="L27" s="24"/>
-    </row>
-    <row r="28" spans="1:15" customHeight="1" ht="11">
+      <c r="I27" s="17">
+        <f t="shared" si="2"/>
+        <v>-38.768709712662421</v>
+      </c>
+      <c r="L27" s="22">
+        <v>-38.768709712662421</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="16">
         <v>26</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="1">
         <v>40267</v>
       </c>
-      <c r="D28" s="18">
-        <v>128.4715</v>
-      </c>
-      <c r="E28" s="18">
+      <c r="D28" s="2">
+        <v>128.47149999999999</v>
+      </c>
+      <c r="E28" s="2">
         <v>127.596</v>
       </c>
-      <c r="F28" s="18">
-        <f>MAX(D15:D28)</f>
+      <c r="F28" s="2">
+        <f t="shared" si="0"/>
         <v>130.0633</v>
       </c>
-      <c r="G28" s="18">
-        <f>MIN(E15:E28)</f>
+      <c r="G28" s="2">
+        <f t="shared" si="1"/>
         <v>125.0689</v>
       </c>
-      <c r="H28" s="18">
-        <v>128.1133</v>
-      </c>
-      <c r="I28" s="19">
-        <f>(F28-H28)/(F28-G28)*-100</f>
-        <v>-39.043728976453</v>
-      </c>
-      <c r="L28" s="24"/>
-    </row>
-    <row r="29" spans="1:15" customHeight="1" ht="11">
+      <c r="H28" s="2">
+        <v>128.11330000000001</v>
+      </c>
+      <c r="I28" s="17">
+        <f t="shared" si="2"/>
+        <v>-39.043728976453409</v>
+      </c>
+      <c r="L28" s="22">
+        <v>-39.043728976453409</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="16">
         <v>27</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="1">
         <v>40268</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="2">
         <v>128.0934</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="2">
         <v>126.999</v>
       </c>
-      <c r="F29" s="18">
-        <f>MAX(D16:D29)</f>
+      <c r="F29" s="2">
+        <f t="shared" si="0"/>
         <v>130.0633</v>
       </c>
-      <c r="G29" s="18">
-        <f>MIN(E16:E29)</f>
-        <v>125.9245</v>
-      </c>
-      <c r="H29" s="18">
+      <c r="G29" s="2">
+        <f t="shared" si="1"/>
+        <v>125.92449999999999</v>
+      </c>
+      <c r="H29" s="2">
         <v>127.596</v>
       </c>
-      <c r="I29" s="19">
-        <f>(F29-H29)/(F29-G29)*-100</f>
-        <v>-59.613897748139</v>
-      </c>
-      <c r="L29" s="24"/>
-    </row>
-    <row r="30" spans="1:15" customHeight="1" ht="11">
+      <c r="I29" s="17">
+        <f t="shared" si="2"/>
+        <v>-59.613897748139379</v>
+      </c>
+      <c r="L29" s="22">
+        <v>-59.613897748139379</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="16">
         <v>28</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="1">
         <v>40269</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="2">
         <v>128.6506</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="2">
         <v>126.8995</v>
       </c>
-      <c r="F30" s="18">
-        <f>MAX(D17:D30)</f>
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
         <v>130.0633</v>
       </c>
-      <c r="G30" s="18">
-        <f>MIN(E17:E30)</f>
-        <v>125.9245</v>
-      </c>
-      <c r="H30" s="18">
+      <c r="G30" s="2">
+        <f t="shared" si="1"/>
+        <v>125.92449999999999</v>
+      </c>
+      <c r="H30" s="2">
         <v>127.596</v>
       </c>
-      <c r="I30" s="19">
-        <f>(F30-H30)/(F30-G30)*-100</f>
-        <v>-59.613897748139</v>
-      </c>
-      <c r="L30" s="24"/>
-    </row>
-    <row r="31" spans="1:15" customHeight="1" ht="11">
+      <c r="I30" s="17">
+        <f t="shared" si="2"/>
+        <v>-59.613897748139379</v>
+      </c>
+      <c r="L30" s="22">
+        <v>-59.613897748139379</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="16">
         <v>29</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="1">
         <v>40273</v>
       </c>
-      <c r="D31" s="18">
-        <v>129.1381</v>
-      </c>
-      <c r="E31" s="18">
-        <v>127.4865</v>
-      </c>
-      <c r="F31" s="18">
-        <f>MAX(D18:D31)</f>
+      <c r="D31" s="2">
+        <v>129.13810000000001</v>
+      </c>
+      <c r="E31" s="2">
+        <v>127.48650000000001</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="0"/>
         <v>130.0633</v>
       </c>
-      <c r="G31" s="18">
-        <f>MIN(E18:E31)</f>
-        <v>125.9245</v>
-      </c>
-      <c r="H31" s="18">
-        <v>128.6904</v>
-      </c>
-      <c r="I31" s="19">
-        <f>(F31-H31)/(F31-G31)*-100</f>
-        <v>-33.171450662027</v>
-      </c>
-      <c r="L31" s="24"/>
-    </row>
-    <row r="32" spans="1:15" customHeight="1" ht="12">
-      <c r="B32" s="20">
+      <c r="G31" s="2">
+        <f t="shared" si="1"/>
+        <v>125.92449999999999</v>
+      </c>
+      <c r="H31" s="2">
+        <v>128.69040000000001</v>
+      </c>
+      <c r="I31" s="17">
+        <f t="shared" si="2"/>
+        <v>-33.171450662027304</v>
+      </c>
+      <c r="L31" s="22">
+        <v>-33.171450662027304</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="18">
         <v>30</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="19">
         <v>40274</v>
       </c>
-      <c r="D32" s="22">
-        <v>128.6406</v>
-      </c>
-      <c r="E32" s="22">
-        <v>127.397</v>
-      </c>
-      <c r="F32" s="22">
-        <f>MAX(D19:D32)</f>
+      <c r="D32" s="20">
+        <v>128.64060000000001</v>
+      </c>
+      <c r="E32" s="20">
+        <v>127.39700000000001</v>
+      </c>
+      <c r="F32" s="20">
+        <f t="shared" si="0"/>
         <v>130.0633</v>
       </c>
-      <c r="G32" s="22">
-        <f>MIN(E19:E32)</f>
-        <v>125.9245</v>
-      </c>
-      <c r="H32" s="22">
-        <v>128.2725</v>
-      </c>
-      <c r="I32" s="23">
-        <f>(F32-H32)/(F32-G32)*-100</f>
-        <v>-43.268580264811</v>
-      </c>
-      <c r="L32" s="24"/>
-    </row>
-    <row r="44" spans="1:15" customHeight="1" ht="11">
+      <c r="G32" s="20">
+        <f t="shared" si="1"/>
+        <v>125.92449999999999</v>
+      </c>
+      <c r="H32" s="20">
+        <v>128.27250000000001</v>
+      </c>
+      <c r="I32" s="21">
+        <f t="shared" si="2"/>
+        <v>-43.268580264810787</v>
+      </c>
+      <c r="L32" s="22">
+        <v>-43.268580264810787</v>
+      </c>
+    </row>
+    <row r="44" spans="15:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O44" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/Tests/files/WilliamR.xlsx
+++ b/Tests/files/WilliamR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\hay\HypanceDataAnalysis\Tests\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Hypance Python Project\ha\HypanceDataAnalysis\Tests\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BCF72C-BB11-4F15-8267-BCF5451C3B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96524413-3780-407C-BB2D-9D5863D2448E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,6 @@
     <sheet name="Williams %R" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -36,9 +26,6 @@
   </si>
   <si>
     <t>High</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Low</t>
   </si>
   <si>
     <t>Highest High (14)</t>
@@ -54,6 +41,9 @@
   </si>
   <si>
     <t>14R</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
 </sst>
 </file>
@@ -551,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -571,90 +561,107 @@
     <col min="12" max="12" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:15" s="5" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12" t="s">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>40232</v>
+      </c>
+      <c r="D2" s="2">
+        <v>127.009</v>
+      </c>
+      <c r="E2" s="2">
+        <v>125.3574</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>40232</v>
+        <v>40233</v>
       </c>
       <c r="D3" s="2">
-        <v>127.009</v>
+        <v>127.6159</v>
       </c>
       <c r="E3" s="2">
-        <v>125.3574</v>
+        <v>126.16330000000001</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="17"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>40233</v>
+        <v>40234</v>
       </c>
       <c r="D4" s="2">
-        <v>127.6159</v>
+        <v>126.5911</v>
       </c>
       <c r="E4" s="2">
-        <v>126.16330000000001</v>
+        <v>124.92959999999999</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="17"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>40234</v>
+        <v>40235</v>
       </c>
       <c r="D5" s="2">
-        <v>126.5911</v>
+        <v>127.3472</v>
       </c>
       <c r="E5" s="2">
-        <v>124.92959999999999</v>
+        <v>126.0937</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -663,16 +670,16 @@
     </row>
     <row r="6" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>40235</v>
+        <v>40238</v>
       </c>
       <c r="D6" s="2">
-        <v>127.3472</v>
+        <v>128.173</v>
       </c>
       <c r="E6" s="2">
-        <v>126.0937</v>
+        <v>126.8199</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -681,16 +688,16 @@
     </row>
     <row r="7" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>40238</v>
+        <v>40239</v>
       </c>
       <c r="D7" s="2">
-        <v>128.173</v>
+        <v>128.43170000000001</v>
       </c>
       <c r="E7" s="2">
-        <v>126.8199</v>
+        <v>126.4817</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -699,16 +706,16 @@
     </row>
     <row r="8" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>40239</v>
+        <v>40240</v>
       </c>
       <c r="D8" s="2">
-        <v>128.43170000000001</v>
+        <v>127.36709999999999</v>
       </c>
       <c r="E8" s="2">
-        <v>126.4817</v>
+        <v>126.03400000000001</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -717,16 +724,16 @@
     </row>
     <row r="9" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>40240</v>
+        <v>40241</v>
       </c>
       <c r="D9" s="2">
-        <v>127.36709999999999</v>
+        <v>126.422</v>
       </c>
       <c r="E9" s="2">
-        <v>126.03400000000001</v>
+        <v>124.8301</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -735,53 +742,53 @@
     </row>
     <row r="10" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>40241</v>
+        <v>40242</v>
       </c>
       <c r="D10" s="2">
-        <v>126.422</v>
+        <v>126.8995</v>
       </c>
       <c r="E10" s="2">
-        <v>124.8301</v>
+        <v>126.3921</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="17"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>40242</v>
+        <v>40245</v>
       </c>
       <c r="D11" s="2">
-        <v>126.8995</v>
+        <v>126.8498</v>
       </c>
       <c r="E11" s="2">
-        <v>126.3921</v>
+        <v>125.71559999999999</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>40245</v>
+        <v>40246</v>
       </c>
       <c r="D12" s="2">
-        <v>126.8498</v>
+        <v>125.646</v>
       </c>
       <c r="E12" s="2">
-        <v>125.71559999999999</v>
+        <v>124.5615</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -790,16 +797,16 @@
     </row>
     <row r="13" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
-        <v>40246</v>
+        <v>40247</v>
       </c>
       <c r="D13" s="2">
-        <v>125.646</v>
+        <v>125.71559999999999</v>
       </c>
       <c r="E13" s="2">
-        <v>124.5615</v>
+        <v>124.5715</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -808,16 +815,16 @@
     </row>
     <row r="14" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>40247</v>
+        <v>40248</v>
       </c>
       <c r="D14" s="2">
-        <v>125.71559999999999</v>
+        <v>127.15819999999999</v>
       </c>
       <c r="E14" s="2">
-        <v>124.5715</v>
+        <v>125.0689</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -826,66 +833,80 @@
     </row>
     <row r="15" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
-        <v>40248</v>
+        <v>40249</v>
       </c>
       <c r="D15" s="2">
-        <v>127.15819999999999</v>
+        <v>127.7154</v>
       </c>
       <c r="E15" s="2">
-        <v>125.0689</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="17"/>
+        <v>126.8597</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" ref="F15:F31" si="0">MAX(D2:D15)</f>
+        <v>128.43170000000001</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" ref="G15:G31" si="1">MIN(E2:E15)</f>
+        <v>124.5615</v>
+      </c>
+      <c r="H15" s="2">
+        <v>127.2876</v>
+      </c>
+      <c r="I15" s="17">
+        <f t="shared" ref="I15:I31" si="2">(F15-H15)/(F15-G15)*-100</f>
+        <v>-29.561779752984485</v>
+      </c>
+      <c r="L15" s="22">
+        <v>-29.561779752984485</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>40249</v>
+        <v>40252</v>
       </c>
       <c r="D16" s="2">
-        <v>127.7154</v>
+        <v>127.6855</v>
       </c>
       <c r="E16" s="2">
-        <v>126.8597</v>
+        <v>126.6309</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" ref="F16:F32" si="0">MAX(D3:D16)</f>
+        <f t="shared" si="0"/>
         <v>128.43170000000001</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" ref="G16:G32" si="1">MIN(E3:E16)</f>
+        <f t="shared" si="1"/>
         <v>124.5615</v>
       </c>
       <c r="H16" s="2">
-        <v>127.2876</v>
+        <v>127.1781</v>
       </c>
       <c r="I16" s="17">
-        <f t="shared" ref="I16:I32" si="2">(F16-H16)/(F16-G16)*-100</f>
-        <v>-29.561779752984485</v>
+        <f t="shared" si="2"/>
+        <v>-32.391090899695165</v>
       </c>
       <c r="L16" s="22">
-        <v>-29.561779752984485</v>
+        <v>-32.391090899695165</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
-        <v>40252</v>
+        <v>40253</v>
       </c>
       <c r="D17" s="2">
-        <v>127.6855</v>
+        <v>128.22280000000001</v>
       </c>
       <c r="E17" s="2">
-        <v>126.6309</v>
+        <v>126.8001</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
@@ -896,28 +917,28 @@
         <v>124.5615</v>
       </c>
       <c r="H17" s="2">
-        <v>127.1781</v>
+        <v>128.0138</v>
       </c>
       <c r="I17" s="17">
         <f t="shared" si="2"/>
-        <v>-32.391090899695165</v>
+        <v>-10.797891581830443</v>
       </c>
       <c r="L17" s="22">
-        <v>-32.391090899695165</v>
+        <v>-10.797891581830443</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>40253</v>
+        <v>40254</v>
       </c>
       <c r="D18" s="2">
-        <v>128.22280000000001</v>
+        <v>128.27250000000001</v>
       </c>
       <c r="E18" s="2">
-        <v>126.8001</v>
+        <v>126.7105</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
@@ -928,28 +949,28 @@
         <v>124.5615</v>
       </c>
       <c r="H18" s="2">
-        <v>128.0138</v>
+        <v>127.10850000000001</v>
       </c>
       <c r="I18" s="17">
         <f t="shared" si="2"/>
-        <v>-10.797891581830443</v>
+        <v>-34.189447573768696</v>
       </c>
       <c r="L18" s="22">
-        <v>-10.797891581830443</v>
+        <v>-34.189447573768696</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1">
-        <v>40254</v>
+        <v>40255</v>
       </c>
       <c r="D19" s="2">
-        <v>128.27250000000001</v>
+        <v>128.0934</v>
       </c>
       <c r="E19" s="2">
-        <v>126.7105</v>
+        <v>126.8001</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
@@ -960,28 +981,28 @@
         <v>124.5615</v>
       </c>
       <c r="H19" s="2">
-        <v>127.10850000000001</v>
+        <v>127.7253</v>
       </c>
       <c r="I19" s="17">
         <f t="shared" si="2"/>
-        <v>-34.189447573768696</v>
+        <v>-18.252286703529535</v>
       </c>
       <c r="L19" s="22">
-        <v>-34.189447573768696</v>
+        <v>-18.252286703529535</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>40255</v>
+        <v>40256</v>
       </c>
       <c r="D20" s="2">
-        <v>128.0934</v>
+        <v>128.27250000000001</v>
       </c>
       <c r="E20" s="2">
-        <v>126.8001</v>
+        <v>126.1335</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
@@ -992,188 +1013,188 @@
         <v>124.5615</v>
       </c>
       <c r="H20" s="2">
-        <v>127.7253</v>
+        <v>127.0587</v>
       </c>
       <c r="I20" s="17">
         <f t="shared" si="2"/>
-        <v>-18.252286703529535</v>
+        <v>-35.476202780218095</v>
       </c>
       <c r="L20" s="22">
-        <v>-18.252286703529535</v>
+        <v>-35.476202780218095</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>40256</v>
+        <v>40259</v>
       </c>
       <c r="D21" s="2">
+        <v>127.7353</v>
+      </c>
+      <c r="E21" s="2">
+        <v>125.92449999999999</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
         <v>128.27250000000001</v>
       </c>
-      <c r="E21" s="2">
-        <v>126.1335</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="0"/>
-        <v>128.43170000000001</v>
-      </c>
       <c r="G21" s="2">
         <f t="shared" si="1"/>
         <v>124.5615</v>
       </c>
       <c r="H21" s="2">
-        <v>127.0587</v>
+        <v>127.32729999999999</v>
       </c>
       <c r="I21" s="17">
         <f t="shared" si="2"/>
-        <v>-35.476202780218095</v>
+        <v>-25.470223659391287</v>
       </c>
       <c r="L21" s="22">
-        <v>-35.476202780218095</v>
+        <v>-25.470223659391287</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1">
-        <v>40259</v>
+        <v>40260</v>
       </c>
       <c r="D22" s="2">
-        <v>127.7353</v>
+        <v>128.77000000000001</v>
       </c>
       <c r="E22" s="2">
-        <v>125.92449999999999</v>
+        <v>126.98909999999999</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>128.27250000000001</v>
+        <v>128.77000000000001</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="1"/>
         <v>124.5615</v>
       </c>
       <c r="H22" s="2">
-        <v>127.32729999999999</v>
+        <v>128.71029999999999</v>
       </c>
       <c r="I22" s="17">
         <f t="shared" si="2"/>
-        <v>-25.470223659391287</v>
+        <v>-1.4185576808844131</v>
       </c>
       <c r="L22" s="22">
-        <v>-25.470223659391287</v>
+        <v>-1.4185576808844131</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1">
-        <v>40260</v>
+        <v>40261</v>
       </c>
       <c r="D23" s="2">
-        <v>128.77000000000001</v>
+        <v>129.28729999999999</v>
       </c>
       <c r="E23" s="2">
-        <v>126.98909999999999</v>
+        <v>127.81480000000001</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>128.77000000000001</v>
+        <v>129.28729999999999</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="1"/>
         <v>124.5615</v>
       </c>
       <c r="H23" s="2">
-        <v>128.71029999999999</v>
+        <v>127.8745</v>
       </c>
       <c r="I23" s="17">
         <f t="shared" si="2"/>
-        <v>-1.4185576808844131</v>
+        <v>-29.89546743408507</v>
       </c>
       <c r="L23" s="22">
-        <v>-1.4185576808844131</v>
+        <v>-29.89546743408507</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1">
-        <v>40261</v>
+        <v>40262</v>
       </c>
       <c r="D24" s="2">
-        <v>129.28729999999999</v>
+        <v>130.0633</v>
       </c>
       <c r="E24" s="2">
-        <v>127.81480000000001</v>
+        <v>128.47149999999999</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>129.28729999999999</v>
+        <v>130.0633</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="1"/>
         <v>124.5615</v>
       </c>
       <c r="H24" s="2">
-        <v>127.8745</v>
+        <v>128.58090000000001</v>
       </c>
       <c r="I24" s="17">
         <f t="shared" si="2"/>
-        <v>-29.89546743408507</v>
+        <v>-26.943909266058082</v>
       </c>
       <c r="L24" s="22">
-        <v>-29.89546743408507</v>
+        <v>-26.943909266058082</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1">
-        <v>40262</v>
+        <v>40263</v>
       </c>
       <c r="D25" s="2">
+        <v>129.1182</v>
+      </c>
+      <c r="E25" s="2">
+        <v>128.0641</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
         <v>130.0633</v>
       </c>
-      <c r="E25" s="2">
-        <v>128.47149999999999</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="0"/>
-        <v>130.0633</v>
-      </c>
       <c r="G25" s="2">
         <f t="shared" si="1"/>
         <v>124.5615</v>
       </c>
       <c r="H25" s="2">
-        <v>128.58090000000001</v>
+        <v>128.60079999999999</v>
       </c>
       <c r="I25" s="17">
         <f t="shared" si="2"/>
-        <v>-26.943909266058082</v>
+        <v>-26.582209458722687</v>
       </c>
       <c r="L25" s="22">
-        <v>-26.943909266058082</v>
+        <v>-26.582209458722687</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="16">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1">
-        <v>40263</v>
+        <v>40266</v>
       </c>
       <c r="D26" s="2">
-        <v>129.1182</v>
+        <v>129.28729999999999</v>
       </c>
       <c r="E26" s="2">
-        <v>128.0641</v>
+        <v>127.60590000000001</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
@@ -1181,31 +1202,31 @@
       </c>
       <c r="G26" s="2">
         <f t="shared" si="1"/>
-        <v>124.5615</v>
+        <v>124.5715</v>
       </c>
       <c r="H26" s="2">
-        <v>128.60079999999999</v>
+        <v>127.9342</v>
       </c>
       <c r="I26" s="17">
         <f t="shared" si="2"/>
-        <v>-26.582209458722687</v>
+        <v>-38.768709712662421</v>
       </c>
       <c r="L26" s="22">
-        <v>-26.582209458722687</v>
+        <v>-38.768709712662421</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="16">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1">
-        <v>40266</v>
+        <v>40267</v>
       </c>
       <c r="D27" s="2">
-        <v>129.28729999999999</v>
+        <v>128.47149999999999</v>
       </c>
       <c r="E27" s="2">
-        <v>127.60590000000001</v>
+        <v>127.596</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
@@ -1213,63 +1234,63 @@
       </c>
       <c r="G27" s="2">
         <f t="shared" si="1"/>
-        <v>124.5715</v>
+        <v>125.0689</v>
       </c>
       <c r="H27" s="2">
-        <v>127.9342</v>
+        <v>128.11330000000001</v>
       </c>
       <c r="I27" s="17">
         <f t="shared" si="2"/>
-        <v>-38.768709712662421</v>
+        <v>-39.043728976453409</v>
       </c>
       <c r="L27" s="22">
-        <v>-38.768709712662421</v>
+        <v>-39.043728976453409</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="16">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1">
-        <v>40267</v>
+        <v>40268</v>
       </c>
       <c r="D28" s="2">
-        <v>128.47149999999999</v>
+        <v>128.0934</v>
       </c>
       <c r="E28" s="2">
+        <v>126.999</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="0"/>
+        <v>130.0633</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="1"/>
+        <v>125.92449999999999</v>
+      </c>
+      <c r="H28" s="2">
         <v>127.596</v>
       </c>
-      <c r="F28" s="2">
-        <f t="shared" si="0"/>
-        <v>130.0633</v>
-      </c>
-      <c r="G28" s="2">
-        <f t="shared" si="1"/>
-        <v>125.0689</v>
-      </c>
-      <c r="H28" s="2">
-        <v>128.11330000000001</v>
-      </c>
       <c r="I28" s="17">
         <f t="shared" si="2"/>
-        <v>-39.043728976453409</v>
+        <v>-59.613897748139379</v>
       </c>
       <c r="L28" s="22">
-        <v>-39.043728976453409</v>
+        <v>-59.613897748139379</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1">
-        <v>40268</v>
+        <v>40269</v>
       </c>
       <c r="D29" s="2">
-        <v>128.0934</v>
+        <v>128.6506</v>
       </c>
       <c r="E29" s="2">
-        <v>126.999</v>
+        <v>126.8995</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="0"/>
@@ -1292,16 +1313,16 @@
     </row>
     <row r="30" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="16">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1">
-        <v>40269</v>
+        <v>40273</v>
       </c>
       <c r="D30" s="2">
-        <v>128.6506</v>
+        <v>129.13810000000001</v>
       </c>
       <c r="E30" s="2">
-        <v>126.8995</v>
+        <v>127.48650000000001</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
@@ -1312,82 +1333,50 @@
         <v>125.92449999999999</v>
       </c>
       <c r="H30" s="2">
-        <v>127.596</v>
+        <v>128.69040000000001</v>
       </c>
       <c r="I30" s="17">
         <f t="shared" si="2"/>
-        <v>-59.613897748139379</v>
+        <v>-33.171450662027304</v>
       </c>
       <c r="L30" s="22">
-        <v>-59.613897748139379</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="16">
-        <v>29</v>
-      </c>
-      <c r="C31" s="1">
-        <v>40273</v>
-      </c>
-      <c r="D31" s="2">
-        <v>129.13810000000001</v>
-      </c>
-      <c r="E31" s="2">
-        <v>127.48650000000001</v>
-      </c>
-      <c r="F31" s="2">
+        <v>-33.171450662027304</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="18">
+        <v>30</v>
+      </c>
+      <c r="C31" s="19">
+        <v>40274</v>
+      </c>
+      <c r="D31" s="20">
+        <v>128.64060000000001</v>
+      </c>
+      <c r="E31" s="20">
+        <v>127.39700000000001</v>
+      </c>
+      <c r="F31" s="20">
         <f t="shared" si="0"/>
         <v>130.0633</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="20">
         <f t="shared" si="1"/>
         <v>125.92449999999999</v>
       </c>
-      <c r="H31" s="2">
-        <v>128.69040000000001</v>
-      </c>
-      <c r="I31" s="17">
-        <f t="shared" si="2"/>
-        <v>-33.171450662027304</v>
+      <c r="H31" s="20">
+        <v>128.27250000000001</v>
+      </c>
+      <c r="I31" s="21">
+        <f t="shared" si="2"/>
+        <v>-43.268580264810787</v>
       </c>
       <c r="L31" s="22">
-        <v>-33.171450662027304</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="18">
-        <v>30</v>
-      </c>
-      <c r="C32" s="19">
-        <v>40274</v>
-      </c>
-      <c r="D32" s="20">
-        <v>128.64060000000001</v>
-      </c>
-      <c r="E32" s="20">
-        <v>127.39700000000001</v>
-      </c>
-      <c r="F32" s="20">
-        <f t="shared" si="0"/>
-        <v>130.0633</v>
-      </c>
-      <c r="G32" s="20">
-        <f t="shared" si="1"/>
-        <v>125.92449999999999</v>
-      </c>
-      <c r="H32" s="20">
-        <v>128.27250000000001</v>
-      </c>
-      <c r="I32" s="21">
-        <f t="shared" si="2"/>
         <v>-43.268580264810787</v>
       </c>
-      <c r="L32" s="22">
-        <v>-43.268580264810787</v>
-      </c>
-    </row>
-    <row r="44" spans="15:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O44" s="5"/>
+    </row>
+    <row r="43" spans="15:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O43" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
